--- a/DATA/POP_SIZING/population_sizing.xlsx
+++ b/DATA/POP_SIZING/population_sizing.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8039798-BF7F-4421-9AF8-E96D22841B1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8 junctions" sheetId="1" r:id="rId1"/>
     <sheet name="6 junctions" sheetId="2" r:id="rId2"/>
+    <sheet name="3 junctions" sheetId="3" r:id="rId3"/>
+    <sheet name="128" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="9">
   <si>
     <t>pop 8</t>
   </si>
@@ -47,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -97,7 +107,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -111,7 +121,48 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>COST</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2000" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> FUNCTION EVOLUTION</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> AND POPULATION SIZE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -125,12 +176,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -143,15 +191,28 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12541246087580954"/>
+          <c:y val="0.1172238189147591"/>
+          <c:w val="0.84111697151153719"/>
+          <c:h val="0.74028155770948334"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>POP 8</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -164,12 +225,10 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -360,6 +419,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3049-40D0-8536-200ADD060854}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -368,7 +432,7 @@
             <c:v>POP 16</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -524,6 +588,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3049-40D0-8536-200ADD060854}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -532,7 +601,7 @@
             <c:v>POP 32</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -748,6 +817,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3049-40D0-8536-200ADD060854}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -756,7 +830,7 @@
             <c:v>POP 64</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -966,6 +1040,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3049-40D0-8536-200ADD060854}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -974,7 +1053,7 @@
             <c:v>POP 128</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -1172,6 +1251,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3049-40D0-8536-200ADD060854}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1180,7 +1264,7 @@
             <c:v>POP 256</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -1205,10 +1289,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'8 junctions'!$G$146:$G$168</c:f>
+              <c:f>'8 junctions'!$G$146:$G$160</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>65</c:v>
                 </c:pt>
@@ -1253,40 +1337,16 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>795</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>847</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>899</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>951</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1003</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1055</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1107</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1159</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'8 junctions'!$F$146:$F$168</c:f>
+              <c:f>'8 junctions'!$F$146:$F$160</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.40089999999999992</c:v>
                 </c:pt>
@@ -1331,35 +1391,16 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.36531200000000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.36518400000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.36510199999999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.36492599999999997</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.36492599999999997</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.36492599999999997</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.36489399999999994</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.36489399999999994</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.36486799999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3049-40D0-8536-200ADD060854}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1393,6 +1434,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>RUNNING TIME [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1415,12 +1509,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1438,6 +1529,8 @@
         <c:axId val="216672144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.40500000000000003"/>
+          <c:min val="0.36000000000000004"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1455,7 +1548,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>STOP RATIO</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.8558227840239961E-2"/>
+              <c:y val="0.39898460061251179"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1477,12 +1631,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1495,6 +1646,8 @@
         <c:crossAx val="2103208144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1.0000000000000002E-2"/>
+        <c:minorUnit val="5.000000000000001E-3"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1504,6 +1657,48 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80363069077888671"/>
+          <c:y val="0.13524456216672689"/>
+          <c:w val="0.13605506874033352"/>
+          <c:h val="0.34610095601034363"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1542,7 +1737,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1556,7 +1751,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1835,6 +2029,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FAA6-4AFB-BB5C-ABE05BB397E0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2023,6 +2222,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FAA6-4AFB-BB5C-ABE05BB397E0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2241,6 +2445,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FAA6-4AFB-BB5C-ABE05BB397E0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2441,6 +2650,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FAA6-4AFB-BB5C-ABE05BB397E0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2623,6 +2837,2172 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 junctions'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pop 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3 junctions'!$G$2:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3 junctions'!$F$2:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.68772999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68209600000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67996199999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67566599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67374400000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.673122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67120799999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66766600000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66612800000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66455200000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.66226799999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.65920199999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.654756</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.65391200000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.65267200000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.65267200000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.65078800000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.65078800000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.65006399999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.64986999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.64986999999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.64560399999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.64560399999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.64560399999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.64560399999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.64560399999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.64560399999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.64560399999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.64538200000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64510599999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7155-4A3A-BF73-F9E181AF5C2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 junctions'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pop 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3 junctions'!$P$2:$P$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3 junctions'!$O$2:$O$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.67188999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66269800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64543800000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62587799999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62413600000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61988799999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61787999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.617344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61634599999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61536199999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61510799999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61212800000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.61101199999999989</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.609568</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.60913000000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.59680399999999989</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.59468199999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.59465999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.594028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.59289999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.59269800000000006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.59269800000000006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.59255999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.56341200000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.56308000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.56308000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.56308000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.56332800000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.56332800000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.56332800000000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.56332800000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7155-4A3A-BF73-F9E181AF5C2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 junctions'!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pop 32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3 junctions'!$Y$2:$Y$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>213</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3 junctions'!$X$2:$X$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.67220200000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65830200000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65051199999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64358800000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63733799999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63670400000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63325399999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63217000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63176600000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.63141400000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63141400000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63141400000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.63141400000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.62370400000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.62361199999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.62228000000000017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.62151800000000013</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.62109800000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.62067400000000006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.62039000000000011</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.62039000000000011</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.61895000000000011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.61895000000000011</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.61820200000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.61715000000000009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.61701200000000012</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.60802</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.6022860000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.60163</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.58926200000000006</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.58527000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7155-4A3A-BF73-F9E181AF5C2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 junctions'!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pop 64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3 junctions'!$AH$2:$AH$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>315</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3 junctions'!$AG$2:$AG$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.65192400000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60628599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59587199999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58872799999999992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58389000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58373600000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57395399999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57095000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57054199999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57031200000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.57015400000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.569712</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.56950200000000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.56950200000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.56950200000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.56950200000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.56950200000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.56950200000000006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.56950200000000006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.56950200000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.53498999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.53498599999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.53498599999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-7155-4A3A-BF73-F9E181AF5C2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 junctions'!$AJ$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pop 128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3 junctions'!$AP$2:$AP$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>647</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3 junctions'!$AO$2:$AO$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.64106799999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60579399999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56769599999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55320199999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53769800000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52407999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.513714</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5102580000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.508656</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50667799999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.50604600000000011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.50419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.50419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.50419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.50419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.50419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.491174</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.491116</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.49099000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.49099000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.49099000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.49099000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.45689600000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-7155-4A3A-BF73-F9E181AF5C2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="149344384"/>
+        <c:axId val="149342208"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="149344384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149342208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="149342208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149344384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>8 junctions</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8 junctions'!$G$117:$G$142</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>632</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>658</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>685</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'128'!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98743826390621114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96932900972811209</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9545323023197807</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94347218757794971</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93638313793963601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92982788725367937</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92504864055874303</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92336742329758048</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92267897231229756</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92060364180593668</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.92003492142678989</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91899725617360961</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.91892242454477446</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.91858318782738846</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.91847343477176369</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.91845347967074098</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.91818408580693456</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.91818408580693456</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.91807932152656535</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.91807932152656535</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.91807932152656535</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.91790471439261678</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.91769019705662269</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.91769019705662269</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.91743576951858341</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE43-4B25-A0B6-81EC50628EA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>6 junctions</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'6 junctions'!$G$133:$G$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>674</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'128'!$C$2:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97642734507274043</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94147082264402349</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91193858817838314</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90142704768853188</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88854039865344459</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88670058168351207</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8826997727984649</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8820375972942005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88158557329727749</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88098683975749337</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.88080840923239212</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88075686263625164</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.88069342067177114</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.88055860649725037</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.88055860649725037</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.88051499014667012</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.88040000158604925</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.87863948707171735</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.8749439926407323</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.8749439926407323</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.87403201440132605</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.87403201440132605</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.87396460731406578</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.87396460731406578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FE43-4B25-A0B6-81EC50628EA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3 junctions</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3 junctions'!$AP$2:$AP$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>647</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'128'!$F$2:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94497619597297011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88554724303818</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86293809705054692</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83875345517168232</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81751077888773116</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80134088739416098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79594988363168984</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79345092876262735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79036545265088876</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.78937959779617783</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78650002807814456</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.78650002807814456</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.78650002807814456</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.78650002807814456</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.78650002807814456</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.76618081077202427</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.76609033675054761</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.76589378973837419</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.76589378973837419</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.76589378973837419</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.76589378973837419</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.71271066407931782</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FE43-4B25-A0B6-81EC50628EA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="314904984"/>
+        <c:axId val="314900392"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="314904984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314900392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="314900392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314904984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2664,6 +5044,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3735,24 +6195,1062 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>314885</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>83764</xdr:rowOff>
+      <xdr:colOff>1921</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>2123</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>462642</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3787,10 +7285,100 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>450954</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>598712</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E015783-2762-4404-8574-E2F898748FD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4A05775-37E6-4082-B32A-D1699BA904E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3883,6 +7471,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3918,6 +7523,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4093,11 +7715,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I172" sqref="I172"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y119" sqref="Y119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7940,11 +11562,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L63" sqref="L63"/>
+    <sheetView topLeftCell="A112" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9001,7 +12623,7 @@
         <v>0.51371999999999995</v>
       </c>
       <c r="F74">
-        <f>AVERAGE(A74:E74)</f>
+        <f t="shared" ref="F74:F96" si="3">AVERAGE(A74:E74)</f>
         <v>0.51371999999999995</v>
       </c>
       <c r="G74">
@@ -9025,7 +12647,7 @@
         <v>0.51371999999999995</v>
       </c>
       <c r="F75">
-        <f>AVERAGE(A75:E75)</f>
+        <f t="shared" si="3"/>
         <v>0.50528399999999996</v>
       </c>
       <c r="G75">
@@ -9049,7 +12671,7 @@
         <v>0.51371999999999995</v>
       </c>
       <c r="F76">
-        <f>AVERAGE(A76:E76)</f>
+        <f t="shared" si="3"/>
         <v>0.49484399999999995</v>
       </c>
       <c r="G76">
@@ -9073,7 +12695,7 @@
         <v>0.51371999999999995</v>
       </c>
       <c r="F77">
-        <f>AVERAGE(A77:E77)</f>
+        <f t="shared" si="3"/>
         <v>0.49169800000000008</v>
       </c>
       <c r="G77">
@@ -9097,7 +12719,7 @@
         <v>0.51336999999999999</v>
       </c>
       <c r="F78">
-        <f>AVERAGE(A78:E78)</f>
+        <f t="shared" si="3"/>
         <v>0.49119600000000008</v>
       </c>
       <c r="G78">
@@ -9121,7 +12743,7 @@
         <v>0.50241000000000002</v>
       </c>
       <c r="F79">
-        <f>AVERAGE(A79:E79)</f>
+        <f t="shared" si="3"/>
         <v>0.48696</v>
       </c>
       <c r="G79">
@@ -9145,7 +12767,7 @@
         <v>0.49024000000000001</v>
       </c>
       <c r="F80">
-        <f>AVERAGE(A80:E80)</f>
+        <f t="shared" si="3"/>
         <v>0.48250999999999999</v>
       </c>
       <c r="G80">
@@ -9169,7 +12791,7 @@
         <v>0.48905999999999999</v>
       </c>
       <c r="F81">
-        <f>AVERAGE(A81:E81)</f>
+        <f t="shared" si="3"/>
         <v>0.48167599999999994</v>
       </c>
       <c r="G81">
@@ -9193,7 +12815,7 @@
         <v>0.48853000000000002</v>
       </c>
       <c r="F82">
-        <f>AVERAGE(A82:E82)</f>
+        <f t="shared" si="3"/>
         <v>0.48155600000000004</v>
       </c>
       <c r="G82">
@@ -9217,7 +12839,7 @@
         <v>0.48760999999999999</v>
       </c>
       <c r="F83">
-        <f>AVERAGE(A83:E83)</f>
+        <f t="shared" si="3"/>
         <v>0.48137200000000002</v>
       </c>
       <c r="G83">
@@ -9241,7 +12863,7 @@
         <v>0.48716999999999999</v>
       </c>
       <c r="F84">
-        <f>AVERAGE(A84:E84)</f>
+        <f t="shared" si="3"/>
         <v>0.48088600000000004</v>
       </c>
       <c r="G84">
@@ -9265,7 +12887,7 @@
         <v>0.48716999999999999</v>
       </c>
       <c r="F85">
-        <f>AVERAGE(A85:E85)</f>
+        <f t="shared" si="3"/>
         <v>0.48038800000000004</v>
       </c>
       <c r="G85">
@@ -9289,7 +12911,7 @@
         <v>0.48716999999999999</v>
       </c>
       <c r="F86">
-        <f>AVERAGE(A86:E86)</f>
+        <f t="shared" si="3"/>
         <v>0.47999000000000003</v>
       </c>
       <c r="G86">
@@ -9313,7 +12935,7 @@
         <v>0.48716999999999999</v>
       </c>
       <c r="F87">
-        <f>AVERAGE(A87:E87)</f>
+        <f t="shared" si="3"/>
         <v>0.47999000000000003</v>
       </c>
       <c r="G87">
@@ -9337,7 +12959,7 @@
         <v>0.48716999999999999</v>
       </c>
       <c r="F88">
-        <f>AVERAGE(A88:E88)</f>
+        <f t="shared" si="3"/>
         <v>0.47999000000000003</v>
       </c>
       <c r="G88">
@@ -9361,7 +12983,7 @@
         <v>0.48716999999999999</v>
       </c>
       <c r="F89">
-        <f>AVERAGE(A89:E89)</f>
+        <f t="shared" si="3"/>
         <v>0.47999000000000003</v>
       </c>
       <c r="G89">
@@ -9385,7 +13007,7 @@
         <v>0.48716999999999999</v>
       </c>
       <c r="F90">
-        <f>AVERAGE(A90:E90)</f>
+        <f t="shared" si="3"/>
         <v>0.47999000000000003</v>
       </c>
       <c r="G90">
@@ -9409,7 +13031,7 @@
         <v>0.48716999999999999</v>
       </c>
       <c r="F91">
-        <f>AVERAGE(A91:E91)</f>
+        <f t="shared" si="3"/>
         <v>0.47999000000000003</v>
       </c>
       <c r="G91">
@@ -9433,7 +13055,7 @@
         <v>0.48716999999999999</v>
       </c>
       <c r="F92">
-        <f>AVERAGE(A92:E92)</f>
+        <f t="shared" si="3"/>
         <v>0.47999000000000003</v>
       </c>
       <c r="G92">
@@ -9457,7 +13079,7 @@
         <v>0.48716999999999999</v>
       </c>
       <c r="F93">
-        <f>AVERAGE(A93:E93)</f>
+        <f t="shared" si="3"/>
         <v>0.47999000000000003</v>
       </c>
       <c r="G93">
@@ -9481,7 +13103,7 @@
         <v>0.48716999999999999</v>
       </c>
       <c r="F94">
-        <f>AVERAGE(A94:E94)</f>
+        <f t="shared" si="3"/>
         <v>0.47999000000000003</v>
       </c>
       <c r="G94">
@@ -9505,7 +13127,7 @@
         <v>0.48716999999999999</v>
       </c>
       <c r="F95">
-        <f>AVERAGE(A95:E95)</f>
+        <f t="shared" si="3"/>
         <v>0.47999000000000003</v>
       </c>
       <c r="G95">
@@ -9529,7 +13151,7 @@
         <v>0.48716999999999999</v>
       </c>
       <c r="F96">
-        <f>AVERAGE(A96:E96)</f>
+        <f t="shared" si="3"/>
         <v>0.47999000000000003</v>
       </c>
       <c r="G96">
@@ -9582,7 +13204,7 @@
         <v>0.47610999999999998</v>
       </c>
       <c r="F103">
-        <f t="shared" ref="F103:F129" si="3">AVERAGE(A103:E103)</f>
+        <f t="shared" ref="F103:F129" si="4">AVERAGE(A103:E103)</f>
         <v>0.49137199999999998</v>
       </c>
       <c r="G103">
@@ -9606,7 +13228,7 @@
         <v>0.46657999999999999</v>
       </c>
       <c r="F104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.47986000000000006</v>
       </c>
       <c r="G104">
@@ -9630,7 +13252,7 @@
         <v>0.46512999999999999</v>
       </c>
       <c r="F105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.47386</v>
       </c>
       <c r="G105">
@@ -9654,7 +13276,7 @@
         <v>0.46499000000000001</v>
       </c>
       <c r="F106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.47010400000000008</v>
       </c>
       <c r="G106">
@@ -9678,7 +13300,7 @@
         <v>0.46499000000000001</v>
       </c>
       <c r="F107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.46923999999999999</v>
       </c>
       <c r="G107">
@@ -9702,7 +13324,7 @@
         <v>0.46499000000000001</v>
       </c>
       <c r="F108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.46708599999999995</v>
       </c>
       <c r="G108">
@@ -9726,7 +13348,7 @@
         <v>0.46499000000000001</v>
       </c>
       <c r="F109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.46598600000000001</v>
       </c>
       <c r="G109">
@@ -9750,7 +13372,7 @@
         <v>0.46461000000000002</v>
       </c>
       <c r="F110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.46588799999999997</v>
       </c>
       <c r="G110">
@@ -9774,7 +13396,7 @@
         <v>0.46461000000000002</v>
       </c>
       <c r="F111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.46444200000000002</v>
       </c>
       <c r="G111">
@@ -9798,7 +13420,7 @@
         <v>0.46461000000000002</v>
       </c>
       <c r="F112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.46409599999999995</v>
       </c>
       <c r="G112">
@@ -9822,7 +13444,7 @@
         <v>0.46461000000000002</v>
       </c>
       <c r="F113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.46356200000000003</v>
       </c>
       <c r="G113">
@@ -9846,7 +13468,7 @@
         <v>0.46383999999999997</v>
       </c>
       <c r="F114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.46329999999999999</v>
       </c>
       <c r="G114">
@@ -9870,7 +13492,7 @@
         <v>0.46379999999999999</v>
       </c>
       <c r="F115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.46322600000000003</v>
       </c>
       <c r="G115">
@@ -9894,7 +13516,7 @@
         <v>0.46379999999999999</v>
       </c>
       <c r="F116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.46321599999999996</v>
       </c>
       <c r="G116">
@@ -9918,7 +13540,7 @@
         <v>0.46379999999999999</v>
       </c>
       <c r="F117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.46321599999999996</v>
       </c>
       <c r="G117">
@@ -9942,7 +13564,7 @@
         <v>0.46379999999999999</v>
       </c>
       <c r="F118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.46317599999999998</v>
       </c>
       <c r="G118">
@@ -9966,7 +13588,7 @@
         <v>0.46321000000000001</v>
       </c>
       <c r="F119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.46292799999999995</v>
       </c>
       <c r="G119">
@@ -9990,7 +13612,7 @@
         <v>0.46321000000000001</v>
       </c>
       <c r="F120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.46291200000000005</v>
       </c>
       <c r="G120">
@@ -10014,7 +13636,7 @@
         <v>0.46321000000000001</v>
       </c>
       <c r="F121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.46279999999999999</v>
       </c>
       <c r="G121">
@@ -10038,7 +13660,7 @@
         <v>0.46296999999999999</v>
       </c>
       <c r="F122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.46275199999999994</v>
       </c>
       <c r="G122">
@@ -10062,7 +13684,7 @@
         <v>0.46235999999999999</v>
       </c>
       <c r="F123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.46262600000000004</v>
       </c>
       <c r="G123">
@@ -10086,7 +13708,7 @@
         <v>0.46235999999999999</v>
       </c>
       <c r="F124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.46262600000000004</v>
       </c>
       <c r="G124">
@@ -10110,7 +13732,7 @@
         <v>0.46205000000000002</v>
       </c>
       <c r="F125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.46256399999999998</v>
       </c>
       <c r="G125">
@@ -10134,7 +13756,7 @@
         <v>0.46205000000000002</v>
       </c>
       <c r="F126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.46256399999999998</v>
       </c>
       <c r="G126">
@@ -10158,7 +13780,7 @@
         <v>0.46205000000000002</v>
       </c>
       <c r="F127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.46256399999999998</v>
       </c>
       <c r="G127">
@@ -10182,7 +13804,7 @@
         <v>0.46205000000000002</v>
       </c>
       <c r="F128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.46256399999999998</v>
       </c>
       <c r="G128">
@@ -10206,7 +13828,7 @@
         <v>0.46205000000000002</v>
       </c>
       <c r="F129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.46256399999999998</v>
       </c>
       <c r="G129">
@@ -10254,7 +13876,7 @@
         <v>0.49829000000000001</v>
       </c>
       <c r="F134">
-        <f t="shared" ref="F134:F157" si="4">AVERAGE(A134:E134)</f>
+        <f t="shared" ref="F134:F157" si="5">AVERAGE(A134:E134)</f>
         <v>0.49250800000000006</v>
       </c>
       <c r="G134">
@@ -10278,7 +13900,7 @@
         <v>0.45396999999999998</v>
       </c>
       <c r="F135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.47487600000000008</v>
       </c>
       <c r="G135">
@@ -10302,7 +13924,7 @@
         <v>0.45305000000000001</v>
       </c>
       <c r="F136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.45998</v>
       </c>
       <c r="G136">
@@ -10326,7 +13948,7 @@
         <v>0.45199</v>
       </c>
       <c r="F137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.45467800000000003</v>
       </c>
       <c r="G137">
@@ -10350,7 +13972,7 @@
         <v>0.45124999999999998</v>
       </c>
       <c r="F138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44817800000000008</v>
       </c>
       <c r="G138">
@@ -10374,7 +13996,7 @@
         <v>0.45086999999999999</v>
       </c>
       <c r="F139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44725000000000004</v>
       </c>
       <c r="G139">
@@ -10398,7 +14020,7 @@
         <v>0.45034000000000002</v>
       </c>
       <c r="F140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44523200000000002</v>
       </c>
       <c r="G140">
@@ -10422,7 +14044,7 @@
         <v>0.45002999999999999</v>
       </c>
       <c r="F141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44489800000000007</v>
       </c>
       <c r="G141">
@@ -10446,7 +14068,7 @@
         <v>0.45002999999999999</v>
       </c>
       <c r="F142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44467000000000007</v>
       </c>
       <c r="G142">
@@ -10470,7 +14092,7 @@
         <v>0.45002999999999999</v>
       </c>
       <c r="F143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44436800000000004</v>
       </c>
       <c r="G143">
@@ -10494,7 +14116,7 @@
         <v>0.45002999999999999</v>
       </c>
       <c r="F144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44427800000000001</v>
       </c>
       <c r="G144">
@@ -10518,7 +14140,7 @@
         <v>0.45002999999999999</v>
       </c>
       <c r="F145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44425199999999998</v>
       </c>
       <c r="G145">
@@ -10542,7 +14164,7 @@
         <v>0.45002999999999999</v>
       </c>
       <c r="F146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44421999999999995</v>
       </c>
       <c r="G146">
@@ -10566,7 +14188,7 @@
         <v>0.45002999999999999</v>
       </c>
       <c r="F147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44415199999999999</v>
       </c>
       <c r="G147">
@@ -10590,7 +14212,7 @@
         <v>0.45002999999999999</v>
       </c>
       <c r="F148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44415199999999999</v>
       </c>
       <c r="G148">
@@ -10614,7 +14236,7 @@
         <v>0.44991999999999999</v>
       </c>
       <c r="F149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44413000000000002</v>
       </c>
       <c r="G149">
@@ -10638,7 +14260,7 @@
         <v>0.44991999999999999</v>
       </c>
       <c r="F150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44407199999999997</v>
       </c>
       <c r="G150">
@@ -10662,7 +14284,7 @@
         <v>0.44991999999999999</v>
       </c>
       <c r="F151">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44318400000000002</v>
       </c>
       <c r="G151">
@@ -10686,7 +14308,7 @@
         <v>0.44991999999999999</v>
       </c>
       <c r="F152">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44131999999999999</v>
       </c>
       <c r="G152">
@@ -10710,7 +14332,7 @@
         <v>0.44991999999999999</v>
       </c>
       <c r="F153">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44131999999999999</v>
       </c>
       <c r="G153">
@@ -10734,7 +14356,7 @@
         <v>0.44991999999999999</v>
       </c>
       <c r="F154">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44085999999999997</v>
       </c>
       <c r="G154">
@@ -10758,7 +14380,7 @@
         <v>0.44991999999999999</v>
       </c>
       <c r="F155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44085999999999997</v>
       </c>
       <c r="G155">
@@ -10782,7 +14404,7 @@
         <v>0.44991999999999999</v>
       </c>
       <c r="F156">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44082600000000005</v>
       </c>
       <c r="G156">
@@ -10806,7 +14428,7 @@
         <v>0.44991999999999999</v>
       </c>
       <c r="F157">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44082600000000005</v>
       </c>
       <c r="G157">
@@ -10818,4 +14440,3549 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E796084C-723E-440B-A606-A38D8BC0D7DF}">
+  <dimension ref="A1:AP32"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.69252999999999998</v>
+      </c>
+      <c r="B2">
+        <v>0.69252999999999998</v>
+      </c>
+      <c r="C2">
+        <v>0.69252999999999998</v>
+      </c>
+      <c r="D2">
+        <v>0.66852999999999996</v>
+      </c>
+      <c r="E2">
+        <v>0.69252999999999998</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGE(A2:E2)</f>
+        <v>0.68772999999999995</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>0.69252999999999998</v>
+      </c>
+      <c r="K2">
+        <v>0.69252999999999998</v>
+      </c>
+      <c r="L2">
+        <v>0.69252999999999998</v>
+      </c>
+      <c r="M2">
+        <v>0.67183000000000004</v>
+      </c>
+      <c r="N2">
+        <v>0.61002999999999996</v>
+      </c>
+      <c r="O2">
+        <f>AVERAGE(J2:N2)</f>
+        <v>0.67188999999999999</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="S2">
+        <v>0.68128999999999995</v>
+      </c>
+      <c r="T2">
+        <v>0.68128999999999995</v>
+      </c>
+      <c r="U2">
+        <v>0.65158000000000005</v>
+      </c>
+      <c r="V2">
+        <v>0.66556000000000004</v>
+      </c>
+      <c r="W2">
+        <v>0.68128999999999995</v>
+      </c>
+      <c r="X2">
+        <f>AVERAGE(S2:W2)</f>
+        <v>0.67220200000000008</v>
+      </c>
+      <c r="Y2">
+        <v>9</v>
+      </c>
+      <c r="AB2">
+        <v>0.66591999999999996</v>
+      </c>
+      <c r="AC2">
+        <v>0.58403000000000005</v>
+      </c>
+      <c r="AD2">
+        <v>0.67447999999999997</v>
+      </c>
+      <c r="AE2">
+        <v>0.66590000000000005</v>
+      </c>
+      <c r="AF2">
+        <v>0.66929000000000005</v>
+      </c>
+      <c r="AG2">
+        <f>AVERAGE(AB2:AF2)</f>
+        <v>0.65192400000000006</v>
+      </c>
+      <c r="AH2">
+        <v>17</v>
+      </c>
+      <c r="AJ2">
+        <v>0.63961999999999997</v>
+      </c>
+      <c r="AK2">
+        <v>0.65132000000000001</v>
+      </c>
+      <c r="AL2">
+        <v>0.626</v>
+      </c>
+      <c r="AM2">
+        <v>0.66246000000000005</v>
+      </c>
+      <c r="AN2">
+        <v>0.62594000000000005</v>
+      </c>
+      <c r="AO2">
+        <f>AVERAGE(AJ2:AN2)</f>
+        <v>0.64106799999999997</v>
+      </c>
+      <c r="AP2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.69150999999999996</v>
+      </c>
+      <c r="B3">
+        <v>0.68159000000000003</v>
+      </c>
+      <c r="C3">
+        <v>0.68491999999999997</v>
+      </c>
+      <c r="D3">
+        <v>0.66852999999999996</v>
+      </c>
+      <c r="E3">
+        <v>0.68393000000000004</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F32" si="0">AVERAGE(A3:E3)</f>
+        <v>0.68209600000000004</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>0.68403000000000003</v>
+      </c>
+      <c r="K3">
+        <v>0.68120000000000003</v>
+      </c>
+      <c r="L3">
+        <v>0.68357999999999997</v>
+      </c>
+      <c r="M3">
+        <v>0.66718999999999995</v>
+      </c>
+      <c r="N3">
+        <v>0.59748999999999997</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O32" si="1">AVERAGE(J3:N3)</f>
+        <v>0.66269800000000001</v>
+      </c>
+      <c r="P3">
+        <v>8</v>
+      </c>
+      <c r="S3">
+        <v>0.66776000000000002</v>
+      </c>
+      <c r="T3">
+        <v>0.66507000000000005</v>
+      </c>
+      <c r="U3">
+        <v>0.65158000000000005</v>
+      </c>
+      <c r="V3">
+        <v>0.64497000000000004</v>
+      </c>
+      <c r="W3">
+        <v>0.66213</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X32" si="2">AVERAGE(S3:W3)</f>
+        <v>0.65830200000000005</v>
+      </c>
+      <c r="Y3">
+        <v>15</v>
+      </c>
+      <c r="AB3">
+        <v>0.64854000000000001</v>
+      </c>
+      <c r="AC3">
+        <v>0.51848000000000005</v>
+      </c>
+      <c r="AD3">
+        <v>0.65075000000000005</v>
+      </c>
+      <c r="AE3">
+        <v>0.59963</v>
+      </c>
+      <c r="AF3">
+        <v>0.61402999999999996</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG24" si="3">AVERAGE(AB3:AF3)</f>
+        <v>0.60628599999999999</v>
+      </c>
+      <c r="AH3">
+        <v>31</v>
+      </c>
+      <c r="AJ3">
+        <v>0.58574999999999999</v>
+      </c>
+      <c r="AK3">
+        <v>0.60746999999999995</v>
+      </c>
+      <c r="AL3">
+        <v>0.61512</v>
+      </c>
+      <c r="AM3">
+        <v>0.61556999999999995</v>
+      </c>
+      <c r="AN3">
+        <v>0.60506000000000004</v>
+      </c>
+      <c r="AO3">
+        <f t="shared" ref="AO3:AO24" si="4">AVERAGE(AJ3:AN3)</f>
+        <v>0.60579399999999994</v>
+      </c>
+      <c r="AP3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.68378000000000005</v>
+      </c>
+      <c r="B4">
+        <v>0.68159000000000003</v>
+      </c>
+      <c r="C4">
+        <v>0.68491999999999997</v>
+      </c>
+      <c r="D4">
+        <v>0.66852999999999996</v>
+      </c>
+      <c r="E4">
+        <v>0.68098999999999998</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.67996199999999996</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>0.68098999999999998</v>
+      </c>
+      <c r="K4">
+        <v>0.60406000000000004</v>
+      </c>
+      <c r="L4">
+        <v>0.68098999999999998</v>
+      </c>
+      <c r="M4">
+        <v>0.66468000000000005</v>
+      </c>
+      <c r="N4">
+        <v>0.59646999999999994</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>0.64543800000000007</v>
+      </c>
+      <c r="P4">
+        <v>11</v>
+      </c>
+      <c r="S4">
+        <v>0.66776000000000002</v>
+      </c>
+      <c r="T4">
+        <v>0.66261000000000003</v>
+      </c>
+      <c r="U4">
+        <v>0.64956999999999998</v>
+      </c>
+      <c r="V4">
+        <v>0.61097999999999997</v>
+      </c>
+      <c r="W4">
+        <v>0.66164000000000001</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="2"/>
+        <v>0.65051199999999998</v>
+      </c>
+      <c r="Y4">
+        <v>22</v>
+      </c>
+      <c r="AB4">
+        <v>0.64754999999999996</v>
+      </c>
+      <c r="AC4">
+        <v>0.51698</v>
+      </c>
+      <c r="AD4">
+        <v>0.64334999999999998</v>
+      </c>
+      <c r="AE4">
+        <v>0.59963</v>
+      </c>
+      <c r="AF4">
+        <v>0.57184999999999997</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="3"/>
+        <v>0.59587199999999996</v>
+      </c>
+      <c r="AH4">
+        <v>44</v>
+      </c>
+      <c r="AJ4">
+        <v>0.52354000000000001</v>
+      </c>
+      <c r="AK4">
+        <v>0.52180000000000004</v>
+      </c>
+      <c r="AL4">
+        <v>0.59089999999999998</v>
+      </c>
+      <c r="AM4">
+        <v>0.61480999999999997</v>
+      </c>
+      <c r="AN4">
+        <v>0.58743000000000001</v>
+      </c>
+      <c r="AO4">
+        <f t="shared" si="4"/>
+        <v>0.56769599999999998</v>
+      </c>
+      <c r="AP4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.68378000000000005</v>
+      </c>
+      <c r="B5">
+        <v>0.67161000000000004</v>
+      </c>
+      <c r="C5">
+        <v>0.68491999999999997</v>
+      </c>
+      <c r="D5">
+        <v>0.66852999999999996</v>
+      </c>
+      <c r="E5">
+        <v>0.66949000000000003</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.67566599999999999</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>0.68067</v>
+      </c>
+      <c r="K5">
+        <v>0.59053</v>
+      </c>
+      <c r="L5">
+        <v>0.66618999999999995</v>
+      </c>
+      <c r="M5">
+        <v>0.66254000000000002</v>
+      </c>
+      <c r="N5">
+        <v>0.52946000000000004</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>0.62587799999999993</v>
+      </c>
+      <c r="P5">
+        <v>15</v>
+      </c>
+      <c r="S5">
+        <v>0.66459999999999997</v>
+      </c>
+      <c r="T5">
+        <v>0.66261000000000003</v>
+      </c>
+      <c r="U5">
+        <v>0.64432</v>
+      </c>
+      <c r="V5">
+        <v>0.58901999999999999</v>
+      </c>
+      <c r="W5">
+        <v>0.65739000000000003</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="2"/>
+        <v>0.64358800000000005</v>
+      </c>
+      <c r="Y5">
+        <v>29</v>
+      </c>
+      <c r="AB5">
+        <v>0.64419999999999999</v>
+      </c>
+      <c r="AC5">
+        <v>0.50504000000000004</v>
+      </c>
+      <c r="AD5">
+        <v>0.64134000000000002</v>
+      </c>
+      <c r="AE5">
+        <v>0.58169999999999999</v>
+      </c>
+      <c r="AF5">
+        <v>0.57135999999999998</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="3"/>
+        <v>0.58872799999999992</v>
+      </c>
+      <c r="AH5">
+        <v>58</v>
+      </c>
+      <c r="AJ5">
+        <v>0.51848000000000005</v>
+      </c>
+      <c r="AK5">
+        <v>0.51265000000000005</v>
+      </c>
+      <c r="AL5">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="AM5">
+        <v>0.61265999999999998</v>
+      </c>
+      <c r="AN5">
+        <v>0.58321999999999996</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" si="4"/>
+        <v>0.55320199999999997</v>
+      </c>
+      <c r="AP5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.68378000000000005</v>
+      </c>
+      <c r="B6">
+        <v>0.66871000000000003</v>
+      </c>
+      <c r="C6">
+        <v>0.67820999999999998</v>
+      </c>
+      <c r="D6">
+        <v>0.66852999999999996</v>
+      </c>
+      <c r="E6">
+        <v>0.66949000000000003</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.67374400000000001</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>0.67649999999999999</v>
+      </c>
+      <c r="K6">
+        <v>0.58853999999999995</v>
+      </c>
+      <c r="L6">
+        <v>0.66618999999999995</v>
+      </c>
+      <c r="M6">
+        <v>0.65998999999999997</v>
+      </c>
+      <c r="N6">
+        <v>0.52946000000000004</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>0.62413600000000002</v>
+      </c>
+      <c r="P6">
+        <v>18</v>
+      </c>
+      <c r="S6">
+        <v>0.64541999999999999</v>
+      </c>
+      <c r="T6">
+        <v>0.66057999999999995</v>
+      </c>
+      <c r="U6">
+        <v>0.64300999999999997</v>
+      </c>
+      <c r="V6">
+        <v>0.58901999999999999</v>
+      </c>
+      <c r="W6">
+        <v>0.64866000000000001</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="2"/>
+        <v>0.63733799999999996</v>
+      </c>
+      <c r="Y6">
+        <v>36</v>
+      </c>
+      <c r="AB6">
+        <v>0.64419999999999999</v>
+      </c>
+      <c r="AC6">
+        <v>0.50504000000000004</v>
+      </c>
+      <c r="AD6">
+        <v>0.64070000000000005</v>
+      </c>
+      <c r="AE6">
+        <v>0.58169999999999999</v>
+      </c>
+      <c r="AF6">
+        <v>0.54781000000000002</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="3"/>
+        <v>0.58389000000000002</v>
+      </c>
+      <c r="AH6">
+        <v>71</v>
+      </c>
+      <c r="AJ6">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AK6">
+        <v>0.50504000000000004</v>
+      </c>
+      <c r="AL6">
+        <v>0.52639999999999998</v>
+      </c>
+      <c r="AM6">
+        <v>0.58701999999999999</v>
+      </c>
+      <c r="AN6">
+        <v>0.56583000000000006</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" si="4"/>
+        <v>0.53769800000000001</v>
+      </c>
+      <c r="AP6">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.68378000000000005</v>
+      </c>
+      <c r="B7">
+        <v>0.66559999999999997</v>
+      </c>
+      <c r="C7">
+        <v>0.67820999999999998</v>
+      </c>
+      <c r="D7">
+        <v>0.66852999999999996</v>
+      </c>
+      <c r="E7">
+        <v>0.66949000000000003</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.673122</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>0.66571999999999998</v>
+      </c>
+      <c r="K7">
+        <v>0.58791000000000004</v>
+      </c>
+      <c r="L7">
+        <v>0.66383999999999999</v>
+      </c>
+      <c r="M7">
+        <v>0.65932999999999997</v>
+      </c>
+      <c r="N7">
+        <v>0.52263999999999999</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>0.61988799999999999</v>
+      </c>
+      <c r="P7">
+        <v>21</v>
+      </c>
+      <c r="S7">
+        <v>0.64541999999999999</v>
+      </c>
+      <c r="T7">
+        <v>0.66057999999999995</v>
+      </c>
+      <c r="U7">
+        <v>0.64300999999999997</v>
+      </c>
+      <c r="V7">
+        <v>0.58901999999999999</v>
+      </c>
+      <c r="W7">
+        <v>0.64549000000000001</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="2"/>
+        <v>0.63670400000000005</v>
+      </c>
+      <c r="Y7">
+        <v>42</v>
+      </c>
+      <c r="AB7">
+        <v>0.64419999999999999</v>
+      </c>
+      <c r="AC7">
+        <v>0.50504000000000004</v>
+      </c>
+      <c r="AD7">
+        <v>0.63993</v>
+      </c>
+      <c r="AE7">
+        <v>0.58169999999999999</v>
+      </c>
+      <c r="AF7">
+        <v>0.54781000000000002</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="3"/>
+        <v>0.58373600000000003</v>
+      </c>
+      <c r="AH7">
+        <v>85</v>
+      </c>
+      <c r="AJ7">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AK7">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AL7">
+        <v>0.52241000000000004</v>
+      </c>
+      <c r="AM7">
+        <v>0.57064999999999999</v>
+      </c>
+      <c r="AN7">
+        <v>0.51893999999999996</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="4"/>
+        <v>0.52407999999999999</v>
+      </c>
+      <c r="AP7">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.68174999999999997</v>
+      </c>
+      <c r="B8">
+        <v>0.66217000000000004</v>
+      </c>
+      <c r="C8">
+        <v>0.67820999999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.66852999999999996</v>
+      </c>
+      <c r="E8">
+        <v>0.66537999999999997</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.67120799999999992</v>
+      </c>
+      <c r="G8">
+        <v>13</v>
+      </c>
+      <c r="J8">
+        <v>0.65971000000000002</v>
+      </c>
+      <c r="K8">
+        <v>0.5877</v>
+      </c>
+      <c r="L8">
+        <v>0.66054999999999997</v>
+      </c>
+      <c r="M8">
+        <v>0.65880000000000005</v>
+      </c>
+      <c r="N8">
+        <v>0.52263999999999999</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>0.61787999999999998</v>
+      </c>
+      <c r="P8">
+        <v>25</v>
+      </c>
+      <c r="S8">
+        <v>0.64398999999999995</v>
+      </c>
+      <c r="T8">
+        <v>0.65017000000000003</v>
+      </c>
+      <c r="U8">
+        <v>0.63941000000000003</v>
+      </c>
+      <c r="V8">
+        <v>0.58901999999999999</v>
+      </c>
+      <c r="W8">
+        <v>0.64368000000000003</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="2"/>
+        <v>0.63325399999999998</v>
+      </c>
+      <c r="Y8">
+        <v>49</v>
+      </c>
+      <c r="AB8">
+        <v>0.64419999999999999</v>
+      </c>
+      <c r="AC8">
+        <v>0.50504000000000004</v>
+      </c>
+      <c r="AD8">
+        <v>0.62455000000000005</v>
+      </c>
+      <c r="AE8">
+        <v>0.58169999999999999</v>
+      </c>
+      <c r="AF8">
+        <v>0.51427999999999996</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="3"/>
+        <v>0.57395399999999996</v>
+      </c>
+      <c r="AH8">
+        <v>98</v>
+      </c>
+      <c r="AJ8">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AK8">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AL8">
+        <v>0.52078000000000002</v>
+      </c>
+      <c r="AM8">
+        <v>0.52917000000000003</v>
+      </c>
+      <c r="AN8">
+        <v>0.51022000000000001</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" si="4"/>
+        <v>0.513714</v>
+      </c>
+      <c r="AP8">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.67467999999999995</v>
+      </c>
+      <c r="B9">
+        <v>0.66217000000000004</v>
+      </c>
+      <c r="C9">
+        <v>0.67161000000000004</v>
+      </c>
+      <c r="D9">
+        <v>0.66852999999999996</v>
+      </c>
+      <c r="E9">
+        <v>0.66134000000000004</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.66766600000000009</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="J9">
+        <v>0.65886999999999996</v>
+      </c>
+      <c r="K9">
+        <v>0.58586000000000005</v>
+      </c>
+      <c r="L9">
+        <v>0.66054999999999997</v>
+      </c>
+      <c r="M9">
+        <v>0.65880000000000005</v>
+      </c>
+      <c r="N9">
+        <v>0.52263999999999999</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>0.617344</v>
+      </c>
+      <c r="P9">
+        <v>28</v>
+      </c>
+      <c r="S9">
+        <v>0.64398999999999995</v>
+      </c>
+      <c r="T9">
+        <v>0.64612999999999998</v>
+      </c>
+      <c r="U9">
+        <v>0.63802999999999999</v>
+      </c>
+      <c r="V9">
+        <v>0.58901999999999999</v>
+      </c>
+      <c r="W9">
+        <v>0.64368000000000003</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="2"/>
+        <v>0.63217000000000001</v>
+      </c>
+      <c r="Y9">
+        <v>56</v>
+      </c>
+      <c r="AB9">
+        <v>0.64419999999999999</v>
+      </c>
+      <c r="AC9">
+        <v>0.50504000000000004</v>
+      </c>
+      <c r="AD9">
+        <v>0.61877000000000004</v>
+      </c>
+      <c r="AE9">
+        <v>0.58169999999999999</v>
+      </c>
+      <c r="AF9">
+        <v>0.50504000000000004</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="3"/>
+        <v>0.57095000000000007</v>
+      </c>
+      <c r="AH9">
+        <v>112</v>
+      </c>
+      <c r="AJ9">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AK9">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AL9">
+        <v>0.52002000000000004</v>
+      </c>
+      <c r="AM9">
+        <v>0.51265000000000005</v>
+      </c>
+      <c r="AN9">
+        <v>0.51022000000000001</v>
+      </c>
+      <c r="AO9">
+        <f t="shared" si="4"/>
+        <v>0.5102580000000001</v>
+      </c>
+      <c r="AP9">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.66876999999999998</v>
+      </c>
+      <c r="B10">
+        <v>0.66039000000000003</v>
+      </c>
+      <c r="C10">
+        <v>0.67161000000000004</v>
+      </c>
+      <c r="D10">
+        <v>0.66852999999999996</v>
+      </c>
+      <c r="E10">
+        <v>0.66134000000000004</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.66612800000000005</v>
+      </c>
+      <c r="G10">
+        <v>17</v>
+      </c>
+      <c r="J10">
+        <v>0.65788999999999997</v>
+      </c>
+      <c r="K10">
+        <v>0.58284999999999998</v>
+      </c>
+      <c r="L10">
+        <v>0.66054999999999997</v>
+      </c>
+      <c r="M10">
+        <v>0.65880000000000005</v>
+      </c>
+      <c r="N10">
+        <v>0.52163999999999999</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>0.61634599999999995</v>
+      </c>
+      <c r="P10">
+        <v>32</v>
+      </c>
+      <c r="S10">
+        <v>0.64398999999999995</v>
+      </c>
+      <c r="T10">
+        <v>0.64410999999999996</v>
+      </c>
+      <c r="U10">
+        <v>0.63802999999999999</v>
+      </c>
+      <c r="V10">
+        <v>0.58901999999999999</v>
+      </c>
+      <c r="W10">
+        <v>0.64368000000000003</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="2"/>
+        <v>0.63176600000000005</v>
+      </c>
+      <c r="Y10">
+        <v>63</v>
+      </c>
+      <c r="AB10">
+        <v>0.64419999999999999</v>
+      </c>
+      <c r="AC10">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AD10">
+        <v>0.61841000000000002</v>
+      </c>
+      <c r="AE10">
+        <v>0.58169999999999999</v>
+      </c>
+      <c r="AF10">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="3"/>
+        <v>0.57054199999999999</v>
+      </c>
+      <c r="AH10">
+        <v>125</v>
+      </c>
+      <c r="AJ10">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AK10">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AL10">
+        <v>0.51961999999999997</v>
+      </c>
+      <c r="AM10">
+        <v>0.51022000000000001</v>
+      </c>
+      <c r="AN10">
+        <v>0.50504000000000004</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" si="4"/>
+        <v>0.508656</v>
+      </c>
+      <c r="AP10">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.66839999999999999</v>
+      </c>
+      <c r="B11">
+        <v>0.65815000000000001</v>
+      </c>
+      <c r="C11">
+        <v>0.67137000000000002</v>
+      </c>
+      <c r="D11">
+        <v>0.66852999999999996</v>
+      </c>
+      <c r="E11">
+        <v>0.65630999999999995</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.66455200000000003</v>
+      </c>
+      <c r="G11">
+        <v>19</v>
+      </c>
+      <c r="J11">
+        <v>0.65661000000000003</v>
+      </c>
+      <c r="K11">
+        <v>0.58018000000000003</v>
+      </c>
+      <c r="L11">
+        <v>0.66054999999999997</v>
+      </c>
+      <c r="M11">
+        <v>0.65880000000000005</v>
+      </c>
+      <c r="N11">
+        <v>0.52066999999999997</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>0.61536199999999996</v>
+      </c>
+      <c r="P11">
+        <v>35</v>
+      </c>
+      <c r="S11">
+        <v>0.64222999999999997</v>
+      </c>
+      <c r="T11">
+        <v>0.64410999999999996</v>
+      </c>
+      <c r="U11">
+        <v>0.63802999999999999</v>
+      </c>
+      <c r="V11">
+        <v>0.58901999999999999</v>
+      </c>
+      <c r="W11">
+        <v>0.64368000000000003</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="2"/>
+        <v>0.63141400000000003</v>
+      </c>
+      <c r="Y11">
+        <v>70</v>
+      </c>
+      <c r="AB11">
+        <v>0.64305000000000001</v>
+      </c>
+      <c r="AC11">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AD11">
+        <v>0.61841000000000002</v>
+      </c>
+      <c r="AE11">
+        <v>0.58169999999999999</v>
+      </c>
+      <c r="AF11">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="3"/>
+        <v>0.57031200000000004</v>
+      </c>
+      <c r="AH11">
+        <v>139</v>
+      </c>
+      <c r="AJ11">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AK11">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AL11">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="AM11">
+        <v>0.50695000000000001</v>
+      </c>
+      <c r="AN11">
+        <v>0.50504000000000004</v>
+      </c>
+      <c r="AO11">
+        <f t="shared" si="4"/>
+        <v>0.50667799999999996</v>
+      </c>
+      <c r="AP11">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.66571000000000002</v>
+      </c>
+      <c r="B12">
+        <v>0.65815000000000001</v>
+      </c>
+      <c r="C12">
+        <v>0.66264000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.66852999999999996</v>
+      </c>
+      <c r="E12">
+        <v>0.65630999999999995</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.66226799999999997</v>
+      </c>
+      <c r="G12">
+        <v>21</v>
+      </c>
+      <c r="J12">
+        <v>0.65661000000000003</v>
+      </c>
+      <c r="K12">
+        <v>0.57923999999999998</v>
+      </c>
+      <c r="L12">
+        <v>0.66022000000000003</v>
+      </c>
+      <c r="M12">
+        <v>0.65880000000000005</v>
+      </c>
+      <c r="N12">
+        <v>0.52066999999999997</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>0.61510799999999999</v>
+      </c>
+      <c r="P12">
+        <v>38</v>
+      </c>
+      <c r="S12">
+        <v>0.64222999999999997</v>
+      </c>
+      <c r="T12">
+        <v>0.64410999999999996</v>
+      </c>
+      <c r="U12">
+        <v>0.63802999999999999</v>
+      </c>
+      <c r="V12">
+        <v>0.58901999999999999</v>
+      </c>
+      <c r="W12">
+        <v>0.64368000000000003</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="2"/>
+        <v>0.63141400000000003</v>
+      </c>
+      <c r="Y12">
+        <v>76</v>
+      </c>
+      <c r="AB12">
+        <v>0.64305000000000001</v>
+      </c>
+      <c r="AC12">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AD12">
+        <v>0.61761999999999995</v>
+      </c>
+      <c r="AE12">
+        <v>0.58169999999999999</v>
+      </c>
+      <c r="AF12">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="3"/>
+        <v>0.57015400000000005</v>
+      </c>
+      <c r="AH12">
+        <v>153</v>
+      </c>
+      <c r="AJ12">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AK12">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AL12">
+        <v>0.50983999999999996</v>
+      </c>
+      <c r="AM12">
+        <v>0.50695000000000001</v>
+      </c>
+      <c r="AN12">
+        <v>0.50504000000000004</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" si="4"/>
+        <v>0.50604600000000011</v>
+      </c>
+      <c r="AP12">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.66351000000000004</v>
+      </c>
+      <c r="B13">
+        <v>0.64932999999999996</v>
+      </c>
+      <c r="C13">
+        <v>0.66124000000000005</v>
+      </c>
+      <c r="D13">
+        <v>0.66852999999999996</v>
+      </c>
+      <c r="E13">
+        <v>0.65339999999999998</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.65920199999999995</v>
+      </c>
+      <c r="G13">
+        <v>23</v>
+      </c>
+      <c r="J13">
+        <v>0.64692000000000005</v>
+      </c>
+      <c r="K13">
+        <v>0.57923999999999998</v>
+      </c>
+      <c r="L13">
+        <v>0.65527999999999997</v>
+      </c>
+      <c r="M13">
+        <v>0.65852999999999995</v>
+      </c>
+      <c r="N13">
+        <v>0.52066999999999997</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>0.61212800000000001</v>
+      </c>
+      <c r="P13">
+        <v>42</v>
+      </c>
+      <c r="S13">
+        <v>0.64222999999999997</v>
+      </c>
+      <c r="T13">
+        <v>0.64410999999999996</v>
+      </c>
+      <c r="U13">
+        <v>0.63802999999999999</v>
+      </c>
+      <c r="V13">
+        <v>0.58901999999999999</v>
+      </c>
+      <c r="W13">
+        <v>0.64368000000000003</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="2"/>
+        <v>0.63141400000000003</v>
+      </c>
+      <c r="Y13">
+        <v>83</v>
+      </c>
+      <c r="AB13">
+        <v>0.64305000000000001</v>
+      </c>
+      <c r="AC13">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AD13">
+        <v>0.61541000000000001</v>
+      </c>
+      <c r="AE13">
+        <v>0.58169999999999999</v>
+      </c>
+      <c r="AF13">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="3"/>
+        <v>0.569712</v>
+      </c>
+      <c r="AH13">
+        <v>166</v>
+      </c>
+      <c r="AJ13">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AK13">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AL13">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AM13">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AN13">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="4"/>
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AP13">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.65802000000000005</v>
+      </c>
+      <c r="B14">
+        <v>0.64212000000000002</v>
+      </c>
+      <c r="C14">
+        <v>0.65793000000000001</v>
+      </c>
+      <c r="D14">
+        <v>0.66852999999999996</v>
+      </c>
+      <c r="E14">
+        <v>0.65339999999999998</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="G14">
+        <v>24</v>
+      </c>
+      <c r="J14">
+        <v>0.64368000000000003</v>
+      </c>
+      <c r="K14">
+        <v>0.57923999999999998</v>
+      </c>
+      <c r="L14">
+        <v>0.65293999999999996</v>
+      </c>
+      <c r="M14">
+        <v>0.65852999999999995</v>
+      </c>
+      <c r="N14">
+        <v>0.52066999999999997</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>0.61101199999999989</v>
+      </c>
+      <c r="P14">
+        <v>45</v>
+      </c>
+      <c r="S14">
+        <v>0.64222999999999997</v>
+      </c>
+      <c r="T14">
+        <v>0.64410999999999996</v>
+      </c>
+      <c r="U14">
+        <v>0.63802999999999999</v>
+      </c>
+      <c r="V14">
+        <v>0.58901999999999999</v>
+      </c>
+      <c r="W14">
+        <v>0.64368000000000003</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="2"/>
+        <v>0.63141400000000003</v>
+      </c>
+      <c r="Y14">
+        <v>90</v>
+      </c>
+      <c r="AB14">
+        <v>0.64305000000000001</v>
+      </c>
+      <c r="AC14">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AD14">
+        <v>0.61436000000000002</v>
+      </c>
+      <c r="AE14">
+        <v>0.58169999999999999</v>
+      </c>
+      <c r="AF14">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="3"/>
+        <v>0.56950200000000006</v>
+      </c>
+      <c r="AH14">
+        <v>180</v>
+      </c>
+      <c r="AJ14">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AK14">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AL14">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AM14">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AN14">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" si="4"/>
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AP14">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.65180000000000005</v>
+      </c>
+      <c r="B15">
+        <v>0.64212000000000002</v>
+      </c>
+      <c r="C15">
+        <v>0.65793000000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.66852999999999996</v>
+      </c>
+      <c r="E15">
+        <v>0.65339999999999998</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0.654756</v>
+      </c>
+      <c r="G15">
+        <v>26</v>
+      </c>
+      <c r="J15">
+        <v>0.64368000000000003</v>
+      </c>
+      <c r="K15">
+        <v>0.57923999999999998</v>
+      </c>
+      <c r="L15">
+        <v>0.64571999999999996</v>
+      </c>
+      <c r="M15">
+        <v>0.65852999999999995</v>
+      </c>
+      <c r="N15">
+        <v>0.52066999999999997</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>0.609568</v>
+      </c>
+      <c r="P15">
+        <v>49</v>
+      </c>
+      <c r="S15">
+        <v>0.62070999999999998</v>
+      </c>
+      <c r="T15">
+        <v>0.62707999999999997</v>
+      </c>
+      <c r="U15">
+        <v>0.63802999999999999</v>
+      </c>
+      <c r="V15">
+        <v>0.58901999999999999</v>
+      </c>
+      <c r="W15">
+        <v>0.64368000000000003</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="2"/>
+        <v>0.62370400000000004</v>
+      </c>
+      <c r="Y15">
+        <v>97</v>
+      </c>
+      <c r="AB15">
+        <v>0.64305000000000001</v>
+      </c>
+      <c r="AC15">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AD15">
+        <v>0.61436000000000002</v>
+      </c>
+      <c r="AE15">
+        <v>0.58169999999999999</v>
+      </c>
+      <c r="AF15">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="3"/>
+        <v>0.56950200000000006</v>
+      </c>
+      <c r="AH15">
+        <v>193</v>
+      </c>
+      <c r="AJ15">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AK15">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AL15">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AM15">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AN15">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="4"/>
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AP15">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.64917999999999998</v>
+      </c>
+      <c r="B16">
+        <v>0.64212000000000002</v>
+      </c>
+      <c r="C16">
+        <v>0.65793000000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.66852999999999996</v>
+      </c>
+      <c r="E16">
+        <v>0.65180000000000005</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.65391200000000005</v>
+      </c>
+      <c r="G16">
+        <v>28</v>
+      </c>
+      <c r="J16">
+        <v>0.64368000000000003</v>
+      </c>
+      <c r="K16">
+        <v>0.57923999999999998</v>
+      </c>
+      <c r="L16">
+        <v>0.64571999999999996</v>
+      </c>
+      <c r="M16">
+        <v>0.65852999999999995</v>
+      </c>
+      <c r="N16">
+        <v>0.51848000000000005</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>0.60913000000000006</v>
+      </c>
+      <c r="P16">
+        <v>52</v>
+      </c>
+      <c r="S16">
+        <v>0.62070999999999998</v>
+      </c>
+      <c r="T16">
+        <v>0.62661999999999995</v>
+      </c>
+      <c r="U16">
+        <v>0.63802999999999999</v>
+      </c>
+      <c r="V16">
+        <v>0.58901999999999999</v>
+      </c>
+      <c r="W16">
+        <v>0.64368000000000003</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="2"/>
+        <v>0.62361199999999994</v>
+      </c>
+      <c r="Y16">
+        <v>104</v>
+      </c>
+      <c r="AB16">
+        <v>0.64305000000000001</v>
+      </c>
+      <c r="AC16">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AD16">
+        <v>0.61436000000000002</v>
+      </c>
+      <c r="AE16">
+        <v>0.58169999999999999</v>
+      </c>
+      <c r="AF16">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="3"/>
+        <v>0.56950200000000006</v>
+      </c>
+      <c r="AH16">
+        <v>207</v>
+      </c>
+      <c r="AJ16">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AK16">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AL16">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AM16">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AN16">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AO16">
+        <f t="shared" si="4"/>
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AP16">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.64917999999999998</v>
+      </c>
+      <c r="B17">
+        <v>0.64212000000000002</v>
+      </c>
+      <c r="C17">
+        <v>0.65793000000000001</v>
+      </c>
+      <c r="D17">
+        <v>0.66852999999999996</v>
+      </c>
+      <c r="E17">
+        <v>0.64559999999999995</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0.65267200000000003</v>
+      </c>
+      <c r="G17">
+        <v>30</v>
+      </c>
+      <c r="J17">
+        <v>0.64368000000000003</v>
+      </c>
+      <c r="K17">
+        <v>0.52309000000000005</v>
+      </c>
+      <c r="L17">
+        <v>0.64571999999999996</v>
+      </c>
+      <c r="M17">
+        <v>0.65852999999999995</v>
+      </c>
+      <c r="N17">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>0.59680399999999989</v>
+      </c>
+      <c r="P17">
+        <v>55</v>
+      </c>
+      <c r="S17">
+        <v>0.62016000000000004</v>
+      </c>
+      <c r="T17">
+        <v>0.62051000000000001</v>
+      </c>
+      <c r="U17">
+        <v>0.63802999999999999</v>
+      </c>
+      <c r="V17">
+        <v>0.58901999999999999</v>
+      </c>
+      <c r="W17">
+        <v>0.64368000000000003</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="2"/>
+        <v>0.62228000000000017</v>
+      </c>
+      <c r="Y17">
+        <v>111</v>
+      </c>
+      <c r="AB17">
+        <v>0.64305000000000001</v>
+      </c>
+      <c r="AC17">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AD17">
+        <v>0.61436000000000002</v>
+      </c>
+      <c r="AE17">
+        <v>0.58169999999999999</v>
+      </c>
+      <c r="AF17">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="3"/>
+        <v>0.56950200000000006</v>
+      </c>
+      <c r="AH17">
+        <v>220</v>
+      </c>
+      <c r="AJ17">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AK17">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AL17">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AM17">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AN17">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AO17">
+        <f t="shared" si="4"/>
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AP17">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.64917999999999998</v>
+      </c>
+      <c r="B18">
+        <v>0.64212000000000002</v>
+      </c>
+      <c r="C18">
+        <v>0.65793000000000001</v>
+      </c>
+      <c r="D18">
+        <v>0.66852999999999996</v>
+      </c>
+      <c r="E18">
+        <v>0.64559999999999995</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.65267200000000003</v>
+      </c>
+      <c r="G18">
+        <v>32</v>
+      </c>
+      <c r="J18">
+        <v>0.64368000000000003</v>
+      </c>
+      <c r="K18">
+        <v>0.51248000000000005</v>
+      </c>
+      <c r="L18">
+        <v>0.64571999999999996</v>
+      </c>
+      <c r="M18">
+        <v>0.65852999999999995</v>
+      </c>
+      <c r="N18">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>0.59468199999999993</v>
+      </c>
+      <c r="P18">
+        <v>59</v>
+      </c>
+      <c r="S18">
+        <v>0.62016000000000004</v>
+      </c>
+      <c r="T18">
+        <v>0.61699000000000004</v>
+      </c>
+      <c r="U18">
+        <v>0.63802999999999999</v>
+      </c>
+      <c r="V18">
+        <v>0.58901999999999999</v>
+      </c>
+      <c r="W18">
+        <v>0.64339000000000002</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="2"/>
+        <v>0.62151800000000013</v>
+      </c>
+      <c r="Y18">
+        <v>117</v>
+      </c>
+      <c r="AB18">
+        <v>0.64305000000000001</v>
+      </c>
+      <c r="AC18">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AD18">
+        <v>0.61436000000000002</v>
+      </c>
+      <c r="AE18">
+        <v>0.58169999999999999</v>
+      </c>
+      <c r="AF18">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="3"/>
+        <v>0.56950200000000006</v>
+      </c>
+      <c r="AH18">
+        <v>234</v>
+      </c>
+      <c r="AJ18">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AK18">
+        <v>0.43907000000000002</v>
+      </c>
+      <c r="AL18">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AM18">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AN18">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AO18">
+        <f t="shared" si="4"/>
+        <v>0.491174</v>
+      </c>
+      <c r="AP18">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.64917999999999998</v>
+      </c>
+      <c r="B19">
+        <v>0.64212000000000002</v>
+      </c>
+      <c r="C19">
+        <v>0.64851000000000003</v>
+      </c>
+      <c r="D19">
+        <v>0.66852999999999996</v>
+      </c>
+      <c r="E19">
+        <v>0.64559999999999995</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0.65078800000000003</v>
+      </c>
+      <c r="G19">
+        <v>34</v>
+      </c>
+      <c r="J19">
+        <v>0.64368000000000003</v>
+      </c>
+      <c r="K19">
+        <v>0.51248000000000005</v>
+      </c>
+      <c r="L19">
+        <v>0.64571999999999996</v>
+      </c>
+      <c r="M19">
+        <v>0.65842000000000001</v>
+      </c>
+      <c r="N19">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>0.59465999999999997</v>
+      </c>
+      <c r="P19">
+        <v>62</v>
+      </c>
+      <c r="S19">
+        <v>0.61868999999999996</v>
+      </c>
+      <c r="T19">
+        <v>0.61636000000000002</v>
+      </c>
+      <c r="U19">
+        <v>0.63802999999999999</v>
+      </c>
+      <c r="V19">
+        <v>0.58901999999999999</v>
+      </c>
+      <c r="W19">
+        <v>0.64339000000000002</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="2"/>
+        <v>0.62109800000000004</v>
+      </c>
+      <c r="Y19">
+        <v>124</v>
+      </c>
+      <c r="AB19">
+        <v>0.64305000000000001</v>
+      </c>
+      <c r="AC19">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AD19">
+        <v>0.61436000000000002</v>
+      </c>
+      <c r="AE19">
+        <v>0.58169999999999999</v>
+      </c>
+      <c r="AF19">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="3"/>
+        <v>0.56950200000000006</v>
+      </c>
+      <c r="AH19">
+        <v>247</v>
+      </c>
+      <c r="AJ19">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AK19">
+        <v>0.43878</v>
+      </c>
+      <c r="AL19">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AM19">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AN19">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AO19">
+        <f t="shared" si="4"/>
+        <v>0.491116</v>
+      </c>
+      <c r="AP19">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.64917999999999998</v>
+      </c>
+      <c r="B20">
+        <v>0.64212000000000002</v>
+      </c>
+      <c r="C20">
+        <v>0.64851000000000003</v>
+      </c>
+      <c r="D20">
+        <v>0.66852999999999996</v>
+      </c>
+      <c r="E20">
+        <v>0.64559999999999995</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0.65078800000000003</v>
+      </c>
+      <c r="G20">
+        <v>35</v>
+      </c>
+      <c r="J20">
+        <v>0.64368000000000003</v>
+      </c>
+      <c r="K20">
+        <v>0.51248000000000005</v>
+      </c>
+      <c r="L20">
+        <v>0.64571999999999996</v>
+      </c>
+      <c r="M20">
+        <v>0.65842000000000001</v>
+      </c>
+      <c r="N20">
+        <v>0.50983999999999996</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>0.594028</v>
+      </c>
+      <c r="P20">
+        <v>66</v>
+      </c>
+      <c r="S20">
+        <v>0.61656999999999995</v>
+      </c>
+      <c r="T20">
+        <v>0.61636000000000002</v>
+      </c>
+      <c r="U20">
+        <v>0.63802999999999999</v>
+      </c>
+      <c r="V20">
+        <v>0.58901999999999999</v>
+      </c>
+      <c r="W20">
+        <v>0.64339000000000002</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="2"/>
+        <v>0.62067400000000006</v>
+      </c>
+      <c r="Y20">
+        <v>131</v>
+      </c>
+      <c r="AB20">
+        <v>0.64305000000000001</v>
+      </c>
+      <c r="AC20">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AD20">
+        <v>0.61436000000000002</v>
+      </c>
+      <c r="AE20">
+        <v>0.58169999999999999</v>
+      </c>
+      <c r="AF20">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="3"/>
+        <v>0.56950200000000006</v>
+      </c>
+      <c r="AH20">
+        <v>261</v>
+      </c>
+      <c r="AJ20">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AK20">
+        <v>0.43814999999999998</v>
+      </c>
+      <c r="AL20">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AM20">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AN20">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AO20">
+        <f t="shared" si="4"/>
+        <v>0.49099000000000004</v>
+      </c>
+      <c r="AP20">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.64556000000000002</v>
+      </c>
+      <c r="B21">
+        <v>0.64212000000000002</v>
+      </c>
+      <c r="C21">
+        <v>0.64851000000000003</v>
+      </c>
+      <c r="D21">
+        <v>0.66852999999999996</v>
+      </c>
+      <c r="E21">
+        <v>0.64559999999999995</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0.65006399999999998</v>
+      </c>
+      <c r="G21">
+        <v>37</v>
+      </c>
+      <c r="J21">
+        <v>0.64368000000000003</v>
+      </c>
+      <c r="K21">
+        <v>0.51248000000000005</v>
+      </c>
+      <c r="L21">
+        <v>0.64571999999999996</v>
+      </c>
+      <c r="M21">
+        <v>0.65842000000000001</v>
+      </c>
+      <c r="N21">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="P21">
+        <v>69</v>
+      </c>
+      <c r="S21">
+        <v>0.61656999999999995</v>
+      </c>
+      <c r="T21">
+        <v>0.61494000000000004</v>
+      </c>
+      <c r="U21">
+        <v>0.63802999999999999</v>
+      </c>
+      <c r="V21">
+        <v>0.58901999999999999</v>
+      </c>
+      <c r="W21">
+        <v>0.64339000000000002</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="2"/>
+        <v>0.62039000000000011</v>
+      </c>
+      <c r="Y21">
+        <v>138</v>
+      </c>
+      <c r="AB21">
+        <v>0.64305000000000001</v>
+      </c>
+      <c r="AC21">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AD21">
+        <v>0.61436000000000002</v>
+      </c>
+      <c r="AE21">
+        <v>0.58169999999999999</v>
+      </c>
+      <c r="AF21">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="3"/>
+        <v>0.56950200000000006</v>
+      </c>
+      <c r="AH21">
+        <v>275</v>
+      </c>
+      <c r="AJ21">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AK21">
+        <v>0.43814999999999998</v>
+      </c>
+      <c r="AL21">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AM21">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AN21">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AO21">
+        <f t="shared" si="4"/>
+        <v>0.49099000000000004</v>
+      </c>
+      <c r="AP21">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.64556000000000002</v>
+      </c>
+      <c r="B22">
+        <v>0.64212000000000002</v>
+      </c>
+      <c r="C22">
+        <v>0.64851000000000003</v>
+      </c>
+      <c r="D22">
+        <v>0.66852999999999996</v>
+      </c>
+      <c r="E22">
+        <v>0.64463000000000004</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0.64986999999999995</v>
+      </c>
+      <c r="G22">
+        <v>39</v>
+      </c>
+      <c r="J22">
+        <v>0.64368000000000003</v>
+      </c>
+      <c r="K22">
+        <v>0.51248000000000005</v>
+      </c>
+      <c r="L22">
+        <v>0.64471000000000001</v>
+      </c>
+      <c r="M22">
+        <v>0.65842000000000001</v>
+      </c>
+      <c r="N22">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>0.59269800000000006</v>
+      </c>
+      <c r="P22">
+        <v>72</v>
+      </c>
+      <c r="S22">
+        <v>0.61656999999999995</v>
+      </c>
+      <c r="T22">
+        <v>0.61494000000000004</v>
+      </c>
+      <c r="U22">
+        <v>0.63802999999999999</v>
+      </c>
+      <c r="V22">
+        <v>0.58901999999999999</v>
+      </c>
+      <c r="W22">
+        <v>0.64339000000000002</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="2"/>
+        <v>0.62039000000000011</v>
+      </c>
+      <c r="Y22">
+        <v>145</v>
+      </c>
+      <c r="AB22">
+        <v>0.47049000000000002</v>
+      </c>
+      <c r="AC22">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AD22">
+        <v>0.61436000000000002</v>
+      </c>
+      <c r="AE22">
+        <v>0.58169999999999999</v>
+      </c>
+      <c r="AF22">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="3"/>
+        <v>0.53498999999999997</v>
+      </c>
+      <c r="AH22">
+        <v>288</v>
+      </c>
+      <c r="AJ22">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AK22">
+        <v>0.43814999999999998</v>
+      </c>
+      <c r="AL22">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AM22">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AN22">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AO22">
+        <f t="shared" si="4"/>
+        <v>0.49099000000000004</v>
+      </c>
+      <c r="AP22">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.64556000000000002</v>
+      </c>
+      <c r="B23">
+        <v>0.64212000000000002</v>
+      </c>
+      <c r="C23">
+        <v>0.64851000000000003</v>
+      </c>
+      <c r="D23">
+        <v>0.66852999999999996</v>
+      </c>
+      <c r="E23">
+        <v>0.64463000000000004</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0.64986999999999995</v>
+      </c>
+      <c r="G23">
+        <v>41</v>
+      </c>
+      <c r="J23">
+        <v>0.64368000000000003</v>
+      </c>
+      <c r="K23">
+        <v>0.51248000000000005</v>
+      </c>
+      <c r="L23">
+        <v>0.64471000000000001</v>
+      </c>
+      <c r="M23">
+        <v>0.65842000000000001</v>
+      </c>
+      <c r="N23">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>0.59269800000000006</v>
+      </c>
+      <c r="P23">
+        <v>76</v>
+      </c>
+      <c r="S23">
+        <v>0.61656999999999995</v>
+      </c>
+      <c r="T23">
+        <v>0.60773999999999995</v>
+      </c>
+      <c r="U23">
+        <v>0.63802999999999999</v>
+      </c>
+      <c r="V23">
+        <v>0.58901999999999999</v>
+      </c>
+      <c r="W23">
+        <v>0.64339000000000002</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="2"/>
+        <v>0.61895000000000011</v>
+      </c>
+      <c r="Y23">
+        <v>151</v>
+      </c>
+      <c r="AB23">
+        <v>0.47047</v>
+      </c>
+      <c r="AC23">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AD23">
+        <v>0.61436000000000002</v>
+      </c>
+      <c r="AE23">
+        <v>0.58169999999999999</v>
+      </c>
+      <c r="AF23">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="3"/>
+        <v>0.53498599999999996</v>
+      </c>
+      <c r="AH23">
+        <v>302</v>
+      </c>
+      <c r="AJ23">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AK23">
+        <v>0.43814999999999998</v>
+      </c>
+      <c r="AL23">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AM23">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AN23">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AO23">
+        <f t="shared" si="4"/>
+        <v>0.49099000000000004</v>
+      </c>
+      <c r="AP23">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.64556000000000002</v>
+      </c>
+      <c r="B24">
+        <v>0.62078999999999995</v>
+      </c>
+      <c r="C24">
+        <v>0.64851000000000003</v>
+      </c>
+      <c r="D24">
+        <v>0.66852999999999996</v>
+      </c>
+      <c r="E24">
+        <v>0.64463000000000004</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.64560399999999996</v>
+      </c>
+      <c r="G24">
+        <v>43</v>
+      </c>
+      <c r="J24">
+        <v>0.64368000000000003</v>
+      </c>
+      <c r="K24">
+        <v>0.51248000000000005</v>
+      </c>
+      <c r="L24">
+        <v>0.64471000000000001</v>
+      </c>
+      <c r="M24">
+        <v>0.65773000000000004</v>
+      </c>
+      <c r="N24">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>0.59255999999999998</v>
+      </c>
+      <c r="P24">
+        <v>79</v>
+      </c>
+      <c r="S24">
+        <v>0.61656999999999995</v>
+      </c>
+      <c r="T24">
+        <v>0.60773999999999995</v>
+      </c>
+      <c r="U24">
+        <v>0.63802999999999999</v>
+      </c>
+      <c r="V24">
+        <v>0.58901999999999999</v>
+      </c>
+      <c r="W24">
+        <v>0.64339000000000002</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="2"/>
+        <v>0.61895000000000011</v>
+      </c>
+      <c r="Y24">
+        <v>158</v>
+      </c>
+      <c r="AB24">
+        <v>0.47047</v>
+      </c>
+      <c r="AC24">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AD24">
+        <v>0.61436000000000002</v>
+      </c>
+      <c r="AE24">
+        <v>0.58169999999999999</v>
+      </c>
+      <c r="AF24">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="3"/>
+        <v>0.53498599999999996</v>
+      </c>
+      <c r="AH24">
+        <v>315</v>
+      </c>
+      <c r="AJ24">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="AK24">
+        <v>0.43814999999999998</v>
+      </c>
+      <c r="AL24">
+        <v>0.43464000000000003</v>
+      </c>
+      <c r="AM24">
+        <v>0.45756999999999998</v>
+      </c>
+      <c r="AN24">
+        <v>0.44991999999999999</v>
+      </c>
+      <c r="AO24">
+        <f t="shared" si="4"/>
+        <v>0.45689600000000008</v>
+      </c>
+      <c r="AP24">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.64556000000000002</v>
+      </c>
+      <c r="B25">
+        <v>0.62078999999999995</v>
+      </c>
+      <c r="C25">
+        <v>0.64851000000000003</v>
+      </c>
+      <c r="D25">
+        <v>0.66852999999999996</v>
+      </c>
+      <c r="E25">
+        <v>0.64463000000000004</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0.64560399999999996</v>
+      </c>
+      <c r="G25">
+        <v>45</v>
+      </c>
+      <c r="J25">
+        <v>0.49806</v>
+      </c>
+      <c r="K25">
+        <v>0.51248000000000005</v>
+      </c>
+      <c r="L25">
+        <v>0.64471000000000001</v>
+      </c>
+      <c r="M25">
+        <v>0.65761000000000003</v>
+      </c>
+      <c r="N25">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>0.56341200000000002</v>
+      </c>
+      <c r="P25">
+        <v>83</v>
+      </c>
+      <c r="S25">
+        <v>0.61282999999999999</v>
+      </c>
+      <c r="T25">
+        <v>0.60773999999999995</v>
+      </c>
+      <c r="U25">
+        <v>0.63802999999999999</v>
+      </c>
+      <c r="V25">
+        <v>0.58901999999999999</v>
+      </c>
+      <c r="W25">
+        <v>0.64339000000000002</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="2"/>
+        <v>0.61820200000000003</v>
+      </c>
+      <c r="Y25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.64556000000000002</v>
+      </c>
+      <c r="B26">
+        <v>0.62078999999999995</v>
+      </c>
+      <c r="C26">
+        <v>0.64851000000000003</v>
+      </c>
+      <c r="D26">
+        <v>0.66852999999999996</v>
+      </c>
+      <c r="E26">
+        <v>0.64463000000000004</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0.64560399999999996</v>
+      </c>
+      <c r="G26">
+        <v>46</v>
+      </c>
+      <c r="J26">
+        <v>0.49806</v>
+      </c>
+      <c r="K26">
+        <v>0.51248000000000005</v>
+      </c>
+      <c r="L26">
+        <v>0.64305000000000001</v>
+      </c>
+      <c r="M26">
+        <v>0.65761000000000003</v>
+      </c>
+      <c r="N26">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>0.56308000000000002</v>
+      </c>
+      <c r="P26">
+        <v>86</v>
+      </c>
+      <c r="S26">
+        <v>0.61282999999999999</v>
+      </c>
+      <c r="T26">
+        <v>0.60248000000000002</v>
+      </c>
+      <c r="U26">
+        <v>0.63802999999999999</v>
+      </c>
+      <c r="V26">
+        <v>0.58901999999999999</v>
+      </c>
+      <c r="W26">
+        <v>0.64339000000000002</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="2"/>
+        <v>0.61715000000000009</v>
+      </c>
+      <c r="Y26">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.64556000000000002</v>
+      </c>
+      <c r="B27">
+        <v>0.62078999999999995</v>
+      </c>
+      <c r="C27">
+        <v>0.64851000000000003</v>
+      </c>
+      <c r="D27">
+        <v>0.66852999999999996</v>
+      </c>
+      <c r="E27">
+        <v>0.64463000000000004</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0.64560399999999996</v>
+      </c>
+      <c r="G27">
+        <v>48</v>
+      </c>
+      <c r="J27">
+        <v>0.49806</v>
+      </c>
+      <c r="K27">
+        <v>0.51248000000000005</v>
+      </c>
+      <c r="L27">
+        <v>0.64305000000000001</v>
+      </c>
+      <c r="M27">
+        <v>0.65761000000000003</v>
+      </c>
+      <c r="N27">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>0.56308000000000002</v>
+      </c>
+      <c r="P27">
+        <v>90</v>
+      </c>
+      <c r="S27">
+        <v>0.61282999999999999</v>
+      </c>
+      <c r="T27">
+        <v>0.60179000000000005</v>
+      </c>
+      <c r="U27">
+        <v>0.63802999999999999</v>
+      </c>
+      <c r="V27">
+        <v>0.58901999999999999</v>
+      </c>
+      <c r="W27">
+        <v>0.64339000000000002</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="2"/>
+        <v>0.61701200000000012</v>
+      </c>
+      <c r="Y27">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.64556000000000002</v>
+      </c>
+      <c r="B28">
+        <v>0.62078999999999995</v>
+      </c>
+      <c r="C28">
+        <v>0.64851000000000003</v>
+      </c>
+      <c r="D28">
+        <v>0.66852999999999996</v>
+      </c>
+      <c r="E28">
+        <v>0.64463000000000004</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0.64560399999999996</v>
+      </c>
+      <c r="G28">
+        <v>50</v>
+      </c>
+      <c r="J28">
+        <v>0.49806</v>
+      </c>
+      <c r="K28">
+        <v>0.51248000000000005</v>
+      </c>
+      <c r="L28">
+        <v>0.64305000000000001</v>
+      </c>
+      <c r="M28">
+        <v>0.65761000000000003</v>
+      </c>
+      <c r="N28">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>0.56308000000000002</v>
+      </c>
+      <c r="P28">
+        <v>93</v>
+      </c>
+      <c r="S28">
+        <v>0.61282999999999999</v>
+      </c>
+      <c r="T28">
+        <v>0.55683000000000005</v>
+      </c>
+      <c r="U28">
+        <v>0.63802999999999999</v>
+      </c>
+      <c r="V28">
+        <v>0.58901999999999999</v>
+      </c>
+      <c r="W28">
+        <v>0.64339000000000002</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="2"/>
+        <v>0.60802</v>
+      </c>
+      <c r="Y28">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.64556000000000002</v>
+      </c>
+      <c r="B29">
+        <v>0.62078999999999995</v>
+      </c>
+      <c r="C29">
+        <v>0.64851000000000003</v>
+      </c>
+      <c r="D29">
+        <v>0.66852999999999996</v>
+      </c>
+      <c r="E29">
+        <v>0.64463000000000004</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0.64560399999999996</v>
+      </c>
+      <c r="G29">
+        <v>52</v>
+      </c>
+      <c r="J29">
+        <v>0.49806</v>
+      </c>
+      <c r="K29">
+        <v>0.51371999999999995</v>
+      </c>
+      <c r="L29">
+        <v>0.64305000000000001</v>
+      </c>
+      <c r="M29">
+        <v>0.65761000000000003</v>
+      </c>
+      <c r="N29">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>0.56332800000000005</v>
+      </c>
+      <c r="P29">
+        <v>96</v>
+      </c>
+      <c r="S29">
+        <v>0.60604999999999998</v>
+      </c>
+      <c r="T29">
+        <v>0.53493999999999997</v>
+      </c>
+      <c r="U29">
+        <v>0.63802999999999999</v>
+      </c>
+      <c r="V29">
+        <v>0.58901999999999999</v>
+      </c>
+      <c r="W29">
+        <v>0.64339000000000002</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="2"/>
+        <v>0.6022860000000001</v>
+      </c>
+      <c r="Y29">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.64556000000000002</v>
+      </c>
+      <c r="B30">
+        <v>0.62078999999999995</v>
+      </c>
+      <c r="C30">
+        <v>0.64851000000000003</v>
+      </c>
+      <c r="D30">
+        <v>0.66852999999999996</v>
+      </c>
+      <c r="E30">
+        <v>0.64463000000000004</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0.64560399999999996</v>
+      </c>
+      <c r="G30">
+        <v>54</v>
+      </c>
+      <c r="J30">
+        <v>0.49806</v>
+      </c>
+      <c r="K30">
+        <v>0.51371999999999995</v>
+      </c>
+      <c r="L30">
+        <v>0.64305000000000001</v>
+      </c>
+      <c r="M30">
+        <v>0.65761000000000003</v>
+      </c>
+      <c r="N30">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>0.56332800000000005</v>
+      </c>
+      <c r="P30">
+        <v>100</v>
+      </c>
+      <c r="S30">
+        <v>0.60604999999999998</v>
+      </c>
+      <c r="T30">
+        <v>0.53166000000000002</v>
+      </c>
+      <c r="U30">
+        <v>0.63802999999999999</v>
+      </c>
+      <c r="V30">
+        <v>0.58901999999999999</v>
+      </c>
+      <c r="W30">
+        <v>0.64339000000000002</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="2"/>
+        <v>0.60163</v>
+      </c>
+      <c r="Y30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.64556000000000002</v>
+      </c>
+      <c r="B31">
+        <v>0.61968000000000001</v>
+      </c>
+      <c r="C31">
+        <v>0.64851000000000003</v>
+      </c>
+      <c r="D31">
+        <v>0.66852999999999996</v>
+      </c>
+      <c r="E31">
+        <v>0.64463000000000004</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0.64538200000000001</v>
+      </c>
+      <c r="G31">
+        <v>56</v>
+      </c>
+      <c r="J31">
+        <v>0.49806</v>
+      </c>
+      <c r="K31">
+        <v>0.51371999999999995</v>
+      </c>
+      <c r="L31">
+        <v>0.64305000000000001</v>
+      </c>
+      <c r="M31">
+        <v>0.65761000000000003</v>
+      </c>
+      <c r="N31">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>0.56332800000000005</v>
+      </c>
+      <c r="P31">
+        <v>103</v>
+      </c>
+      <c r="S31">
+        <v>0.54420999999999997</v>
+      </c>
+      <c r="T31">
+        <v>0.53166000000000002</v>
+      </c>
+      <c r="U31">
+        <v>0.63802999999999999</v>
+      </c>
+      <c r="V31">
+        <v>0.58901999999999999</v>
+      </c>
+      <c r="W31">
+        <v>0.64339000000000002</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="2"/>
+        <v>0.58926200000000006</v>
+      </c>
+      <c r="Y31">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.64556000000000002</v>
+      </c>
+      <c r="B32">
+        <v>0.61829999999999996</v>
+      </c>
+      <c r="C32">
+        <v>0.64851000000000003</v>
+      </c>
+      <c r="D32">
+        <v>0.66852999999999996</v>
+      </c>
+      <c r="E32">
+        <v>0.64463000000000004</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0.64510599999999996</v>
+      </c>
+      <c r="G32">
+        <v>58</v>
+      </c>
+      <c r="J32">
+        <v>0.49806</v>
+      </c>
+      <c r="K32">
+        <v>0.51371999999999995</v>
+      </c>
+      <c r="L32">
+        <v>0.64305000000000001</v>
+      </c>
+      <c r="M32">
+        <v>0.65761000000000003</v>
+      </c>
+      <c r="N32">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>0.56332800000000005</v>
+      </c>
+      <c r="P32">
+        <v>107</v>
+      </c>
+      <c r="S32">
+        <v>0.52593999999999996</v>
+      </c>
+      <c r="T32">
+        <v>0.52997000000000005</v>
+      </c>
+      <c r="U32">
+        <v>0.63802999999999999</v>
+      </c>
+      <c r="V32">
+        <v>0.58901999999999999</v>
+      </c>
+      <c r="W32">
+        <v>0.64339000000000002</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="2"/>
+        <v>0.58527000000000007</v>
+      </c>
+      <c r="Y32">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA552E82-C600-407F-98C8-35F7633DFAF0}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>8</v>
+      </c>
+      <c r="C1">
+        <v>6</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'8 junctions'!$F117/'8 junctions'!$F$117</f>
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>'6 junctions'!F133/'6 junctions'!$F$133</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>'3 junctions'!$AO2/'3 junctions'!$AO$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>'8 junctions'!$F118/'8 junctions'!$F$117</f>
+        <v>0.98743826390621114</v>
+      </c>
+      <c r="C3">
+        <f>'6 junctions'!F134/'6 junctions'!$F$133</f>
+        <v>0.97642734507274043</v>
+      </c>
+      <c r="F3">
+        <f>'3 junctions'!$AO3/'3 junctions'!$AO$2</f>
+        <v>0.94497619597297011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>'8 junctions'!$F119/'8 junctions'!$F$117</f>
+        <v>0.96932900972811209</v>
+      </c>
+      <c r="C4">
+        <f>'6 junctions'!F135/'6 junctions'!$F$133</f>
+        <v>0.94147082264402349</v>
+      </c>
+      <c r="F4">
+        <f>'3 junctions'!$AO4/'3 junctions'!$AO$2</f>
+        <v>0.88554724303818</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>'8 junctions'!$F120/'8 junctions'!$F$117</f>
+        <v>0.9545323023197807</v>
+      </c>
+      <c r="C5">
+        <f>'6 junctions'!F136/'6 junctions'!$F$133</f>
+        <v>0.91193858817838314</v>
+      </c>
+      <c r="F5">
+        <f>'3 junctions'!$AO5/'3 junctions'!$AO$2</f>
+        <v>0.86293809705054692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>'8 junctions'!$F121/'8 junctions'!$F$117</f>
+        <v>0.94347218757794971</v>
+      </c>
+      <c r="C6">
+        <f>'6 junctions'!F137/'6 junctions'!$F$133</f>
+        <v>0.90142704768853188</v>
+      </c>
+      <c r="F6">
+        <f>'3 junctions'!$AO6/'3 junctions'!$AO$2</f>
+        <v>0.83875345517168232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>'8 junctions'!$F122/'8 junctions'!$F$117</f>
+        <v>0.93638313793963601</v>
+      </c>
+      <c r="C7">
+        <f>'6 junctions'!F138/'6 junctions'!$F$133</f>
+        <v>0.88854039865344459</v>
+      </c>
+      <c r="F7">
+        <f>'3 junctions'!$AO7/'3 junctions'!$AO$2</f>
+        <v>0.81751077888773116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>'8 junctions'!$F123/'8 junctions'!$F$117</f>
+        <v>0.92982788725367937</v>
+      </c>
+      <c r="C8">
+        <f>'6 junctions'!F139/'6 junctions'!$F$133</f>
+        <v>0.88670058168351207</v>
+      </c>
+      <c r="F8">
+        <f>'3 junctions'!$AO8/'3 junctions'!$AO$2</f>
+        <v>0.80134088739416098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>'8 junctions'!$F124/'8 junctions'!$F$117</f>
+        <v>0.92504864055874303</v>
+      </c>
+      <c r="C9">
+        <f>'6 junctions'!F140/'6 junctions'!$F$133</f>
+        <v>0.8826997727984649</v>
+      </c>
+      <c r="F9">
+        <f>'3 junctions'!$AO9/'3 junctions'!$AO$2</f>
+        <v>0.79594988363168984</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>'8 junctions'!$F125/'8 junctions'!$F$117</f>
+        <v>0.92336742329758048</v>
+      </c>
+      <c r="C10">
+        <f>'6 junctions'!F141/'6 junctions'!$F$133</f>
+        <v>0.8820375972942005</v>
+      </c>
+      <c r="F10">
+        <f>'3 junctions'!$AO10/'3 junctions'!$AO$2</f>
+        <v>0.79345092876262735</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>'8 junctions'!$F126/'8 junctions'!$F$117</f>
+        <v>0.92267897231229756</v>
+      </c>
+      <c r="C11">
+        <f>'6 junctions'!F142/'6 junctions'!$F$133</f>
+        <v>0.88158557329727749</v>
+      </c>
+      <c r="F11">
+        <f>'3 junctions'!$AO11/'3 junctions'!$AO$2</f>
+        <v>0.79036545265088876</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>'8 junctions'!$F127/'8 junctions'!$F$117</f>
+        <v>0.92060364180593668</v>
+      </c>
+      <c r="C12">
+        <f>'6 junctions'!F143/'6 junctions'!$F$133</f>
+        <v>0.88098683975749337</v>
+      </c>
+      <c r="F12">
+        <f>'3 junctions'!$AO12/'3 junctions'!$AO$2</f>
+        <v>0.78937959779617783</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>'8 junctions'!$F128/'8 junctions'!$F$117</f>
+        <v>0.92003492142678989</v>
+      </c>
+      <c r="C13">
+        <f>'6 junctions'!F144/'6 junctions'!$F$133</f>
+        <v>0.88080840923239212</v>
+      </c>
+      <c r="F13">
+        <f>'3 junctions'!$AO13/'3 junctions'!$AO$2</f>
+        <v>0.78650002807814456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>'8 junctions'!$F129/'8 junctions'!$F$117</f>
+        <v>0.91899725617360961</v>
+      </c>
+      <c r="C14">
+        <f>'6 junctions'!F145/'6 junctions'!$F$133</f>
+        <v>0.88075686263625164</v>
+      </c>
+      <c r="F14">
+        <f>'3 junctions'!$AO14/'3 junctions'!$AO$2</f>
+        <v>0.78650002807814456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>'8 junctions'!$F130/'8 junctions'!$F$117</f>
+        <v>0.91892242454477446</v>
+      </c>
+      <c r="C15">
+        <f>'6 junctions'!F146/'6 junctions'!$F$133</f>
+        <v>0.88069342067177114</v>
+      </c>
+      <c r="F15">
+        <f>'3 junctions'!$AO15/'3 junctions'!$AO$2</f>
+        <v>0.78650002807814456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>'8 junctions'!$F131/'8 junctions'!$F$117</f>
+        <v>0.91858318782738846</v>
+      </c>
+      <c r="C16">
+        <f>'6 junctions'!F147/'6 junctions'!$F$133</f>
+        <v>0.88055860649725037</v>
+      </c>
+      <c r="F16">
+        <f>'3 junctions'!$AO16/'3 junctions'!$AO$2</f>
+        <v>0.78650002807814456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>'8 junctions'!$F132/'8 junctions'!$F$117</f>
+        <v>0.91847343477176369</v>
+      </c>
+      <c r="C17">
+        <f>'6 junctions'!F148/'6 junctions'!$F$133</f>
+        <v>0.88055860649725037</v>
+      </c>
+      <c r="F17">
+        <f>'3 junctions'!$AO17/'3 junctions'!$AO$2</f>
+        <v>0.78650002807814456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>'8 junctions'!$F133/'8 junctions'!$F$117</f>
+        <v>0.91845347967074098</v>
+      </c>
+      <c r="C18">
+        <f>'6 junctions'!F149/'6 junctions'!$F$133</f>
+        <v>0.88051499014667012</v>
+      </c>
+      <c r="F18">
+        <f>'3 junctions'!$AO18/'3 junctions'!$AO$2</f>
+        <v>0.76618081077202427</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>'8 junctions'!$F134/'8 junctions'!$F$117</f>
+        <v>0.91818408580693456</v>
+      </c>
+      <c r="C19">
+        <f>'6 junctions'!F150/'6 junctions'!$F$133</f>
+        <v>0.88040000158604925</v>
+      </c>
+      <c r="F19">
+        <f>'3 junctions'!$AO19/'3 junctions'!$AO$2</f>
+        <v>0.76609033675054761</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>'8 junctions'!$F135/'8 junctions'!$F$117</f>
+        <v>0.91818408580693456</v>
+      </c>
+      <c r="C20">
+        <f>'6 junctions'!F151/'6 junctions'!$F$133</f>
+        <v>0.87863948707171735</v>
+      </c>
+      <c r="F20">
+        <f>'3 junctions'!$AO20/'3 junctions'!$AO$2</f>
+        <v>0.76589378973837419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>'8 junctions'!$F136/'8 junctions'!$F$117</f>
+        <v>0.91807932152656535</v>
+      </c>
+      <c r="C21">
+        <f>'6 junctions'!F152/'6 junctions'!$F$133</f>
+        <v>0.8749439926407323</v>
+      </c>
+      <c r="F21">
+        <f>'3 junctions'!$AO21/'3 junctions'!$AO$2</f>
+        <v>0.76589378973837419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>'8 junctions'!$F137/'8 junctions'!$F$117</f>
+        <v>0.91807932152656535</v>
+      </c>
+      <c r="C22">
+        <f>'6 junctions'!F153/'6 junctions'!$F$133</f>
+        <v>0.8749439926407323</v>
+      </c>
+      <c r="F22">
+        <f>'3 junctions'!$AO22/'3 junctions'!$AO$2</f>
+        <v>0.76589378973837419</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>'8 junctions'!$F138/'8 junctions'!$F$117</f>
+        <v>0.91807932152656535</v>
+      </c>
+      <c r="C23">
+        <f>'6 junctions'!F154/'6 junctions'!$F$133</f>
+        <v>0.87403201440132605</v>
+      </c>
+      <c r="F23">
+        <f>'3 junctions'!$AO23/'3 junctions'!$AO$2</f>
+        <v>0.76589378973837419</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>'8 junctions'!$F139/'8 junctions'!$F$117</f>
+        <v>0.91790471439261678</v>
+      </c>
+      <c r="C24">
+        <f>'6 junctions'!F155/'6 junctions'!$F$133</f>
+        <v>0.87403201440132605</v>
+      </c>
+      <c r="F24">
+        <f>'3 junctions'!$AO24/'3 junctions'!$AO$2</f>
+        <v>0.71271066407931782</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>'8 junctions'!$F140/'8 junctions'!$F$117</f>
+        <v>0.91769019705662269</v>
+      </c>
+      <c r="C25">
+        <f>'6 junctions'!F156/'6 junctions'!$F$133</f>
+        <v>0.87396460731406578</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>'8 junctions'!$F141/'8 junctions'!$F$117</f>
+        <v>0.91769019705662269</v>
+      </c>
+      <c r="C26">
+        <f>'6 junctions'!F157/'6 junctions'!$F$133</f>
+        <v>0.87396460731406578</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>'8 junctions'!$F142/'8 junctions'!$F$117</f>
+        <v>0.91743576951858341</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>